--- a/ReductionData.xlsx
+++ b/ReductionData.xlsx
@@ -450,7 +450,7 @@
         <v>0.711864406779661</v>
       </c>
       <c r="D3">
-        <v>9.932799999999631</v>
+        <v>10.06430000000025</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -464,7 +464,7 @@
         <v>0.9491525423728814</v>
       </c>
       <c r="D4">
-        <v>206.3761</v>
+        <v>205.972</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -478,7 +478,7 @@
         <v>0.9661016949152542</v>
       </c>
       <c r="D5">
-        <v>10.24289999999972</v>
+        <v>10.38879999999986</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -492,7 +492,7 @@
         <v>0.9152542372881356</v>
       </c>
       <c r="D6">
-        <v>36.6187</v>
+        <v>36.36269999999975</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -506,7 +506,7 @@
         <v>0.9491525423728814</v>
       </c>
       <c r="D7">
-        <v>5.44590000000067</v>
+        <v>5.84819999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -544,10 +544,10 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.6779661016949152</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C14">
-        <v>22.42639999999962</v>
+        <v>22.71139999999994</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="G14">
-        <v>17.68509999999957</v>
+        <v>20.08849999999995</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -570,7 +570,7 @@
         <v>0.6271186440677966</v>
       </c>
       <c r="C15">
-        <v>21.92219999999967</v>
+        <v>21.97669999999974</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="G15">
-        <v>11.89869999999971</v>
+        <v>13.32529999999998</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -590,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>0.6440677966101694</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C16">
-        <v>22.60930000000005</v>
+        <v>21.95370000000008</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0.6101694915254238</v>
       </c>
       <c r="G16">
-        <v>12.01819999999998</v>
+        <v>13.98100000000024</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -613,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0.6610169491525424</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C17">
-        <v>21.90769999999986</v>
+        <v>21.77509999999927</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0.6271186440677966</v>
       </c>
       <c r="G17">
-        <v>11.30889999999951</v>
+        <v>12.81670000000013</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -639,7 +639,7 @@
         <v>0.6271186440677966</v>
       </c>
       <c r="C18">
-        <v>21.69449999999973</v>
+        <v>21.78859999999982</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0.6101694915254238</v>
       </c>
       <c r="G18">
-        <v>11.97310000000051</v>
+        <v>13.01029999999948</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -659,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>0.6271186440677966</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C19">
-        <v>23.22179999999996</v>
+        <v>21.80280000000057</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0.6101694915254238</v>
       </c>
       <c r="G19">
-        <v>11.72769999999979</v>
+        <v>12.18059999999888</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -685,7 +685,7 @@
         <v>0.6779661016949152</v>
       </c>
       <c r="C20">
-        <v>21.57609999999988</v>
+        <v>21.41919999999953</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.6101694915254238</v>
       </c>
       <c r="G20">
-        <v>12.29030000000009</v>
+        <v>12.77400000000029</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -705,10 +705,10 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.6440677966101694</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C21">
-        <v>21.39610000000047</v>
+        <v>22.12859999999939</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0.5932203389830508</v>
       </c>
       <c r="G21">
-        <v>11.34139999999917</v>
+        <v>12.68810000000009</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -728,10 +728,10 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>0.576271186440678</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C22">
-        <v>21.43259999999891</v>
+        <v>21.31500000000042</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="G22">
-        <v>11.2375999999994</v>
+        <v>12.39960000000018</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -751,22 +751,22 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>0.6271186440677966</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C23">
-        <v>23.21609999999907</v>
+        <v>21.30579999999949</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1.505200000000428</v>
+        <v>1.385499999999595</v>
       </c>
       <c r="F23">
         <v>0.6779661016949152</v>
       </c>
       <c r="G23">
-        <v>11.23079999999987</v>
+        <v>12.82469999999947</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -774,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>0.3389830508474576</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C24">
-        <v>21.8942000000002</v>
+        <v>21.66209999999946</v>
       </c>
       <c r="D24">
         <v>0.864406779661017</v>
       </c>
       <c r="E24">
-        <v>1.06899999999932</v>
+        <v>1.172600000000301</v>
       </c>
       <c r="F24">
         <v>0.6440677966101694</v>
       </c>
       <c r="G24">
-        <v>11.14199999999954</v>
+        <v>12.49729999999971</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -825,7 +825,7 @@
         <v>0.6779661016949152</v>
       </c>
       <c r="C27">
-        <v>22.42639999999962</v>
+        <v>22.71139999999994</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.6440677966101694</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="G27">
-        <v>17.68509999999957</v>
+        <v>20.08849999999995</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -845,10 +845,10 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>0.6271186440677966</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C28">
-        <v>21.92219999999967</v>
+        <v>21.97669999999974</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="G28">
-        <v>11.89869999999971</v>
+        <v>13.32529999999998</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -868,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="B29">
-        <v>0.6440677966101694</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C29">
-        <v>22.60930000000005</v>
+        <v>21.95370000000008</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.6101694915254238</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G29">
-        <v>12.01819999999998</v>
+        <v>13.98100000000024</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -891,10 +891,10 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>0.6610169491525424</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C30">
-        <v>21.90769999999986</v>
+        <v>21.77509999999927</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0.6271186440677966</v>
       </c>
       <c r="G30">
-        <v>11.30889999999951</v>
+        <v>12.81670000000013</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -914,10 +914,10 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>0.6271186440677966</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C31">
-        <v>21.69449999999973</v>
+        <v>21.78859999999982</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.6101694915254238</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G31">
-        <v>11.97310000000051</v>
+        <v>13.01029999999948</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -940,7 +940,7 @@
         <v>0.6271186440677966</v>
       </c>
       <c r="C32">
-        <v>23.22179999999996</v>
+        <v>21.80280000000057</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.6101694915254238</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="G32">
-        <v>11.72769999999979</v>
+        <v>12.18059999999888</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -960,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>0.6779661016949152</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C33">
-        <v>21.57609999999988</v>
+        <v>21.41919999999953</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.6101694915254238</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="G33">
-        <v>12.29030000000009</v>
+        <v>12.77400000000029</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -986,7 +986,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="C34">
-        <v>21.39610000000047</v>
+        <v>22.12859999999939</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.5932203389830508</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="G34">
-        <v>11.34139999999917</v>
+        <v>12.68810000000009</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1006,10 +1006,10 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>0.576271186440678</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C35">
-        <v>21.43259999999891</v>
+        <v>21.31500000000042</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.6440677966101694</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="G35">
-        <v>11.2375999999994</v>
+        <v>12.39960000000018</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1029,22 +1029,22 @@
         <v>2</v>
       </c>
       <c r="B36">
+        <v>0.6610169491525424</v>
+      </c>
+      <c r="C36">
+        <v>21.30579999999949</v>
+      </c>
+      <c r="D36">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="E36">
+        <v>1.385499999999595</v>
+      </c>
+      <c r="F36">
         <v>0.6271186440677966</v>
       </c>
-      <c r="C36">
-        <v>23.21609999999907</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1.505200000000428</v>
-      </c>
-      <c r="F36">
-        <v>0.6779661016949152</v>
-      </c>
       <c r="G36">
-        <v>11.23079999999987</v>
+        <v>12.82469999999947</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1055,19 +1055,19 @@
         <v>0.3389830508474576</v>
       </c>
       <c r="C37">
-        <v>21.8942000000002</v>
+        <v>21.66209999999946</v>
       </c>
       <c r="D37">
         <v>0.864406779661017</v>
       </c>
       <c r="E37">
-        <v>1.06899999999932</v>
+        <v>1.172600000000301</v>
       </c>
       <c r="F37">
-        <v>0.6440677966101694</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="G37">
-        <v>11.14199999999954</v>
+        <v>12.49729999999971</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1100,10 +1100,10 @@
         <v>11</v>
       </c>
       <c r="B40">
-        <v>0.6779661016949152</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C40">
-        <v>22.42639999999962</v>
+        <v>22.71139999999994</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.6440677966101694</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="G40">
-        <v>17.68509999999957</v>
+        <v>20.08849999999995</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1123,10 +1123,10 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>0.6271186440677966</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C41">
-        <v>21.92219999999967</v>
+        <v>21.97669999999974</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.6440677966101694</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="G41">
-        <v>11.89869999999971</v>
+        <v>13.32529999999998</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1149,7 +1149,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="C42">
-        <v>22.60930000000005</v>
+        <v>21.95370000000008</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.6101694915254238</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G42">
-        <v>12.01819999999998</v>
+        <v>13.98100000000024</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1169,10 +1169,10 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <v>0.6610169491525424</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C43">
-        <v>21.90769999999986</v>
+        <v>21.77509999999927</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.6271186440677966</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G43">
-        <v>11.30889999999951</v>
+        <v>12.81670000000013</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1195,7 +1195,7 @@
         <v>0.6271186440677966</v>
       </c>
       <c r="C44">
-        <v>21.69449999999973</v>
+        <v>21.78859999999982</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.6101694915254238</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G44">
-        <v>11.97310000000051</v>
+        <v>13.01029999999948</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1218,7 +1218,7 @@
         <v>0.6271186440677966</v>
       </c>
       <c r="C45">
-        <v>23.22179999999996</v>
+        <v>21.80280000000057</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.6101694915254238</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G45">
-        <v>11.72769999999979</v>
+        <v>12.18059999999888</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1238,22 +1238,22 @@
         <v>5</v>
       </c>
       <c r="B46">
+        <v>0.6271186440677966</v>
+      </c>
+      <c r="C46">
+        <v>21.41919999999953</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>0.6779661016949152</v>
       </c>
-      <c r="C46">
-        <v>21.57609999999988</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0.6101694915254238</v>
-      </c>
       <c r="G46">
-        <v>12.29030000000009</v>
+        <v>12.77400000000029</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1261,10 +1261,10 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>0.6440677966101694</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C47">
-        <v>21.39610000000047</v>
+        <v>22.12859999999939</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.5932203389830508</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="G47">
-        <v>11.34139999999917</v>
+        <v>12.68810000000009</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1284,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.576271186440678</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C48">
-        <v>21.43259999999891</v>
+        <v>21.31500000000042</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0.6440677966101694</v>
       </c>
       <c r="G48">
-        <v>11.2375999999994</v>
+        <v>12.39960000000018</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1307,22 +1307,22 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>0.6271186440677966</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C49">
-        <v>23.21609999999907</v>
+        <v>21.30579999999949</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1.505200000000428</v>
+        <v>1.385499999999595</v>
       </c>
       <c r="F49">
-        <v>0.6779661016949152</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="G49">
-        <v>11.23079999999987</v>
+        <v>12.82469999999947</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1330,22 +1330,22 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>0.3389830508474576</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C50">
-        <v>21.8942000000002</v>
+        <v>21.66209999999946</v>
       </c>
       <c r="D50">
         <v>0.864406779661017</v>
       </c>
       <c r="E50">
-        <v>1.06899999999932</v>
+        <v>1.172600000000301</v>
       </c>
       <c r="F50">
-        <v>0.6440677966101694</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="G50">
-        <v>11.14199999999954</v>
+        <v>12.49729999999971</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1378,10 +1378,10 @@
         <v>11</v>
       </c>
       <c r="B53">
-        <v>0.6779661016949152</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C53">
-        <v>22.42639999999962</v>
+        <v>22.71139999999994</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.6440677966101694</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="G53">
-        <v>17.68509999999957</v>
+        <v>20.08849999999995</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1401,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="B54">
-        <v>0.6271186440677966</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C54">
-        <v>21.92219999999967</v>
+        <v>21.97669999999974</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.6440677966101694</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="G54">
-        <v>11.89869999999971</v>
+        <v>13.32529999999998</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1424,10 +1424,10 @@
         <v>9</v>
       </c>
       <c r="B55">
-        <v>0.6440677966101694</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C55">
-        <v>22.60930000000005</v>
+        <v>21.95370000000008</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.6101694915254238</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G55">
-        <v>12.01819999999998</v>
+        <v>13.98100000000024</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1447,10 +1447,10 @@
         <v>8</v>
       </c>
       <c r="B56">
-        <v>0.6610169491525424</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C56">
-        <v>21.90769999999986</v>
+        <v>21.77509999999927</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.6271186440677966</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G56">
-        <v>11.30889999999951</v>
+        <v>12.81670000000013</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1470,10 +1470,10 @@
         <v>7</v>
       </c>
       <c r="B57">
-        <v>0.6271186440677966</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C57">
-        <v>21.69449999999973</v>
+        <v>21.78859999999982</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.6101694915254238</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G57">
-        <v>11.97310000000051</v>
+        <v>13.01029999999948</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1493,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="B58">
-        <v>0.6271186440677966</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C58">
-        <v>23.22179999999996</v>
+        <v>21.80280000000057</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.6101694915254238</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="G58">
-        <v>11.72769999999979</v>
+        <v>12.18059999999888</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1516,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <v>0.6779661016949152</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C59">
-        <v>21.57609999999988</v>
+        <v>21.41919999999953</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.6101694915254238</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="G59">
-        <v>12.29030000000009</v>
+        <v>12.77400000000029</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1539,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>0.6440677966101694</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C60">
-        <v>21.39610000000047</v>
+        <v>22.12859999999939</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5932203389830508</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="G60">
-        <v>11.34139999999917</v>
+        <v>12.68810000000009</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1562,10 +1562,10 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>0.576271186440678</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C61">
-        <v>21.43259999999891</v>
+        <v>21.31500000000042</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.6440677966101694</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="G61">
-        <v>11.2375999999994</v>
+        <v>12.39960000000018</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1585,22 +1585,22 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>0.6271186440677966</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C62">
-        <v>23.21609999999907</v>
+        <v>21.30579999999949</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1.505200000000428</v>
+        <v>1.385499999999595</v>
       </c>
       <c r="F62">
-        <v>0.6779661016949152</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="G62">
-        <v>11.23079999999987</v>
+        <v>12.82469999999947</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1608,22 +1608,22 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>0.3389830508474576</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C63">
-        <v>21.8942000000002</v>
+        <v>21.66209999999946</v>
       </c>
       <c r="D63">
-        <v>0.864406779661017</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="E63">
-        <v>1.06899999999932</v>
+        <v>1.172600000000301</v>
       </c>
       <c r="F63">
-        <v>0.6440677966101694</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="G63">
-        <v>11.14199999999954</v>
+        <v>12.49729999999971</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1656,10 +1656,10 @@
         <v>11</v>
       </c>
       <c r="B66">
-        <v>0.6779661016949152</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="C66">
-        <v>22.42639999999962</v>
+        <v>22.71139999999994</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.6440677966101694</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G66">
-        <v>17.68509999999957</v>
+        <v>20.08849999999995</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1679,10 +1679,10 @@
         <v>10</v>
       </c>
       <c r="B67">
-        <v>0.6271186440677966</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C67">
-        <v>21.92219999999967</v>
+        <v>21.97669999999974</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.6440677966101694</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G67">
-        <v>11.89869999999971</v>
+        <v>13.32529999999998</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1702,10 +1702,10 @@
         <v>9</v>
       </c>
       <c r="B68">
-        <v>0.6440677966101694</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C68">
-        <v>22.60930000000005</v>
+        <v>21.95370000000008</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.6101694915254238</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G68">
-        <v>12.01819999999998</v>
+        <v>13.98100000000024</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1725,10 +1725,10 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>0.6610169491525424</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C69">
-        <v>21.90769999999986</v>
+        <v>21.77509999999927</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.6271186440677966</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G69">
-        <v>11.30889999999951</v>
+        <v>12.81670000000013</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1748,10 +1748,10 @@
         <v>7</v>
       </c>
       <c r="B70">
-        <v>0.6271186440677966</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C70">
-        <v>21.69449999999973</v>
+        <v>21.78859999999982</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.6101694915254238</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G70">
-        <v>11.97310000000051</v>
+        <v>13.01029999999948</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -1771,10 +1771,10 @@
         <v>6</v>
       </c>
       <c r="B71">
-        <v>0.6271186440677966</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C71">
-        <v>23.22179999999996</v>
+        <v>21.80280000000057</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.6101694915254238</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G71">
-        <v>11.72769999999979</v>
+        <v>12.18059999999888</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -1794,10 +1794,10 @@
         <v>5</v>
       </c>
       <c r="B72">
-        <v>0.6779661016949152</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C72">
-        <v>21.57609999999988</v>
+        <v>21.41919999999953</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.6101694915254238</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="G72">
-        <v>12.29030000000009</v>
+        <v>12.77400000000029</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -1817,10 +1817,10 @@
         <v>4</v>
       </c>
       <c r="B73">
-        <v>0.6440677966101694</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C73">
-        <v>21.39610000000047</v>
+        <v>22.12859999999939</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.5932203389830508</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G73">
-        <v>11.34139999999917</v>
+        <v>12.68810000000009</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -1840,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>0.576271186440678</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C74">
-        <v>21.43259999999891</v>
+        <v>21.31500000000042</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.6440677966101694</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="G74">
-        <v>11.2375999999994</v>
+        <v>12.39960000000018</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1863,22 +1863,22 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>0.6271186440677966</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C75">
-        <v>23.21609999999907</v>
+        <v>21.30579999999949</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="E75">
-        <v>1.505200000000428</v>
+        <v>1.385499999999595</v>
       </c>
       <c r="F75">
-        <v>0.6779661016949152</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="G75">
-        <v>11.23079999999987</v>
+        <v>12.82469999999947</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -1889,19 +1889,19 @@
         <v>0.3389830508474576</v>
       </c>
       <c r="C76">
-        <v>21.8942000000002</v>
+        <v>21.66209999999946</v>
       </c>
       <c r="D76">
-        <v>0.864406779661017</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="E76">
-        <v>1.06899999999932</v>
+        <v>1.172600000000301</v>
       </c>
       <c r="F76">
-        <v>0.6440677966101694</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="G76">
-        <v>11.14199999999954</v>
+        <v>12.49729999999971</v>
       </c>
     </row>
   </sheetData>
